--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>parameters</t>
   </si>
@@ -46,6 +46,33 @@
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>First version</t>
+  </si>
+  <si>
+    <t>FLKv1</t>
+  </si>
+  <si>
+    <t>FLKv2</t>
+  </si>
+  <si>
+    <t>把v2里的im2col里的weight和mask改成常数</t>
+  </si>
+  <si>
+    <t>base_channel</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>改回来了，在vgg测试</t>
+  </si>
+  <si>
+    <t>vgg7</t>
   </si>
 </sst>
 </file>
@@ -53,12 +80,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,65 +95,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,6 +109,120 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -148,71 +231,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,13 +247,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,109 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,55 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,24 +460,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -478,17 +480,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,11 +508,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,154 +543,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1023,161 +1046,459 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B5:I10"/>
+  <dimension ref="A5:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="49.5" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="8" max="9" width="11.375" customWidth="1"/>
+    <col min="10" max="11" width="15.625" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="3:12">
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:9">
-      <c r="B6" t="s">
+    <row r="6" spans="3:12">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
       <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7">
+    <row r="7" spans="3:12">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>128</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="J7">
         <v>0.002633</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>0.001291</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8">
+    <row r="8" spans="3:12">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>16</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>128</v>
-      </c>
-      <c r="E8">
-        <v>112</v>
       </c>
       <c r="F8">
         <v>112</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="J8">
         <v>0.002985</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>0.001495</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9">
+    <row r="9" spans="3:12">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>16</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>32</v>
-      </c>
-      <c r="E9">
-        <v>112</v>
       </c>
       <c r="F9">
         <v>112</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="J9">
         <v>0.000739</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>0.000428</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
-      <c r="B10">
-        <v>1</v>
-      </c>
+    <row r="10" spans="3:8">
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>32</v>
-      </c>
-      <c r="E10">
-        <v>112</v>
       </c>
       <c r="F10">
         <v>112</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>112</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12">
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12">
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>128</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>0.00306</v>
+      </c>
+      <c r="K14">
+        <v>0.00364</v>
+      </c>
+      <c r="L14">
+        <v>0.00454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>128</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>0.0026</v>
+      </c>
+      <c r="K15">
+        <v>0.00351</v>
+      </c>
+      <c r="L15">
+        <v>0.00215</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>128</v>
+      </c>
+      <c r="F16">
+        <v>112</v>
+      </c>
+      <c r="G16">
+        <v>112</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>64</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>112</v>
+      </c>
+      <c r="F19">
+        <v>112</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>0.0029</v>
+      </c>
+      <c r="K19">
+        <v>0.0046</v>
+      </c>
+      <c r="L19">
+        <v>0.0034</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20">
+        <v>64</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>112</v>
+      </c>
+      <c r="F20">
+        <v>112</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>1000</v>
+      </c>
+      <c r="J20">
+        <v>0.0068</v>
+      </c>
+      <c r="K20">
+        <v>0.039</v>
+      </c>
+      <c r="L20">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21">
+        <v>64</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>112</v>
+      </c>
+      <c r="F21">
+        <v>112</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>1000</v>
+      </c>
+      <c r="J21">
+        <v>0.016</v>
+      </c>
+      <c r="K21">
+        <v>0.619</v>
+      </c>
+      <c r="L21">
+        <v>0.439</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22">
+        <v>64</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>112</v>
+      </c>
+      <c r="F22">
+        <v>112</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>1000</v>
+      </c>
+      <c r="J22">
+        <v>0.011</v>
+      </c>
+      <c r="K22">
+        <v>0.304</v>
+      </c>
+      <c r="L22">
+        <v>0.218</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>parameters</t>
   </si>
@@ -69,10 +69,16 @@
     <t>amount</t>
   </si>
   <si>
+    <t>git version</t>
+  </si>
+  <si>
     <t>改回来了，在vgg测试</t>
   </si>
   <si>
     <t>vgg7</t>
+  </si>
+  <si>
+    <t>6a9aec0</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1052,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:L22"/>
+  <dimension ref="A5:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1059,6 +1065,7 @@
     <col min="8" max="9" width="11.375" customWidth="1"/>
     <col min="10" max="11" width="15.625" customWidth="1"/>
     <col min="12" max="12" width="13.75" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:12">
@@ -1317,7 +1324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:14">
       <c r="B18" t="s">
         <v>14</v>
       </c>
@@ -1351,10 +1358,13 @@
       <c r="L18" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N18" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>64</v>
@@ -1375,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I19">
         <v>100</v>
@@ -1388,6 +1398,9 @@
       </c>
       <c r="L19">
         <v>0.0034</v>
+      </c>
+      <c r="N19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -1410,7 +1423,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I20">
         <v>1000</v>
@@ -1445,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I21">
         <v>1000</v>
@@ -1480,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I22">
         <v>1000</v>

--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>parameters</t>
   </si>
@@ -24,6 +24,9 @@
     <t>one conv time(s)</t>
   </si>
   <si>
+    <t>git version</t>
+  </si>
+  <si>
     <t>Cout</t>
   </si>
   <si>
@@ -57,9 +60,18 @@
     <t>FLKv2</t>
   </si>
   <si>
+    <t>FLKv3</t>
+  </si>
+  <si>
     <t>把v2里的im2col里的weight和mask改成常数</t>
   </si>
   <si>
+    <t>改回来了，加入v3</t>
+  </si>
+  <si>
+    <t>bb29928</t>
+  </si>
+  <si>
     <t>base_channel</t>
   </si>
   <si>
@@ -67,12 +79,6 @@
   </si>
   <si>
     <t>amount</t>
-  </si>
-  <si>
-    <t>git version</t>
-  </si>
-  <si>
-    <t>改回来了，在vgg测试</t>
   </si>
   <si>
     <t>vgg7</t>
@@ -1052,10 +1058,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:N22"/>
+  <dimension ref="A5:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1068,7 +1074,7 @@
     <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:12">
+    <row r="5" spans="3:14">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,32 +1089,35 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
+      <c r="N5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="3:12">
       <c r="C6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="3:12">
@@ -1211,36 +1220,39 @@
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13">
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="3:12">
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="3:12">
@@ -1274,7 +1286,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -1304,7 +1316,10 @@
         <v>0.00215</v>
       </c>
     </row>
-    <row r="16" spans="3:8">
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
       <c r="C16">
         <v>16</v>
       </c>
@@ -1323,87 +1338,81 @@
       <c r="H16">
         <v>3</v>
       </c>
+      <c r="J16">
+        <v>0.0045</v>
+      </c>
+      <c r="K16">
+        <v>0.0213</v>
+      </c>
+      <c r="L16">
+        <v>0.0134</v>
+      </c>
+      <c r="M16">
+        <v>0.0126</v>
+      </c>
+      <c r="N16" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="18" spans="2:14">
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="17" spans="3:14">
+      <c r="C17">
+        <v>256</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>128</v>
+      </c>
+      <c r="F17">
+        <v>112</v>
+      </c>
+      <c r="G17">
+        <v>112</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D19" t="s">
         <v>5</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E19" t="s">
         <v>6</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F19" t="s">
         <v>7</v>
       </c>
-      <c r="H18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>64</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>112</v>
-      </c>
-      <c r="F19">
-        <v>112</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
+      <c r="G19" t="s">
+        <v>8</v>
       </c>
       <c r="H19" t="s">
         <v>19</v>
       </c>
-      <c r="I19">
-        <v>100</v>
-      </c>
-      <c r="J19">
-        <v>0.0029</v>
-      </c>
-      <c r="K19">
-        <v>0.0046</v>
-      </c>
-      <c r="L19">
-        <v>0.0034</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="I19" t="s">
         <v>20</v>
       </c>
+      <c r="J19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:14">
       <c r="B20">
         <v>64</v>
       </c>
@@ -1423,22 +1432,25 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I20">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="J20">
-        <v>0.0068</v>
+        <v>0.0029</v>
       </c>
       <c r="K20">
-        <v>0.039</v>
+        <v>0.0046</v>
       </c>
       <c r="L20">
-        <v>0.028</v>
+        <v>0.0034</v>
+      </c>
+      <c r="N20" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:14">
       <c r="B21">
         <v>64</v>
       </c>
@@ -1446,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>112</v>
@@ -1458,22 +1470,25 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I21">
         <v>1000</v>
       </c>
       <c r="J21">
-        <v>0.016</v>
+        <v>0.0068</v>
       </c>
       <c r="K21">
-        <v>0.619</v>
+        <v>0.039</v>
       </c>
       <c r="L21">
-        <v>0.439</v>
+        <v>0.028</v>
+      </c>
+      <c r="N21" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:14">
       <c r="B22">
         <v>64</v>
       </c>
@@ -1481,7 +1496,7 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>112</v>
@@ -1493,19 +1508,60 @@
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I22">
         <v>1000</v>
       </c>
       <c r="J22">
+        <v>0.016</v>
+      </c>
+      <c r="K22">
+        <v>0.619</v>
+      </c>
+      <c r="L22">
+        <v>0.439</v>
+      </c>
+      <c r="N22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23">
+        <v>64</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>112</v>
+      </c>
+      <c r="F23">
+        <v>112</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23">
+        <v>1000</v>
+      </c>
+      <c r="J23">
         <v>0.011</v>
       </c>
-      <c r="K22">
+      <c r="K23">
         <v>0.304</v>
       </c>
-      <c r="L22">
+      <c r="L23">
         <v>0.218</v>
+      </c>
+      <c r="N23" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>parameters</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>bb29928</t>
+  </si>
+  <si>
+    <t>加入v4</t>
+  </si>
+  <si>
+    <t>22010a2</t>
   </si>
   <si>
     <t>base_channel</t>
@@ -1058,10 +1064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:N23"/>
+  <dimension ref="A5:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1071,10 +1077,10 @@
     <col min="8" max="9" width="11.375" customWidth="1"/>
     <col min="10" max="11" width="15.625" customWidth="1"/>
     <col min="12" max="12" width="13.75" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:14">
+    <row r="5" spans="3:15">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1095,7 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1316,7 +1322,7 @@
         <v>0.00215</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1350,11 +1356,11 @@
       <c r="M16">
         <v>0.0126</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:15">
       <c r="C17">
         <v>256</v>
       </c>
@@ -1373,84 +1379,102 @@
       <c r="H17">
         <v>3</v>
       </c>
-      <c r="N17" t="s">
+      <c r="J17">
+        <v>0.029</v>
+      </c>
+      <c r="K17">
+        <v>0.255</v>
+      </c>
+      <c r="L17">
+        <v>0.174</v>
+      </c>
+      <c r="M17">
+        <v>0.159</v>
+      </c>
+      <c r="O17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
-      <c r="B19" t="s">
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C18">
+        <v>256</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>128</v>
+      </c>
+      <c r="F18">
+        <v>112</v>
+      </c>
+      <c r="G18">
+        <v>112</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <v>0.029</v>
+      </c>
+      <c r="K18">
+        <v>0.253</v>
+      </c>
+      <c r="L18">
+        <v>0.179</v>
+      </c>
+      <c r="M18">
+        <v>0.169</v>
+      </c>
+      <c r="N18">
+        <v>0.035</v>
+      </c>
+      <c r="O18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>5</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>6</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>7</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>8</v>
-      </c>
-      <c r="H19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20">
-        <v>64</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>112</v>
-      </c>
-      <c r="F20">
-        <v>112</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
       </c>
       <c r="H20" t="s">
         <v>21</v>
       </c>
-      <c r="I20">
-        <v>100</v>
-      </c>
-      <c r="J20">
-        <v>0.0029</v>
-      </c>
-      <c r="K20">
-        <v>0.0046</v>
-      </c>
-      <c r="L20">
-        <v>0.0034</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="I20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="2:14">
+      <c r="J20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
       <c r="B21">
         <v>64</v>
       </c>
@@ -1470,25 +1494,25 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I21">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="J21">
-        <v>0.0068</v>
+        <v>0.0029</v>
       </c>
       <c r="K21">
-        <v>0.039</v>
+        <v>0.0046</v>
       </c>
       <c r="L21">
-        <v>0.028</v>
-      </c>
-      <c r="N21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14">
+        <v>0.0034</v>
+      </c>
+      <c r="O21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
       <c r="B22">
         <v>64</v>
       </c>
@@ -1496,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>112</v>
@@ -1508,25 +1532,25 @@
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I22">
         <v>1000</v>
       </c>
       <c r="J22">
-        <v>0.016</v>
+        <v>0.0068</v>
       </c>
       <c r="K22">
-        <v>0.619</v>
+        <v>0.039</v>
       </c>
       <c r="L22">
-        <v>0.439</v>
-      </c>
-      <c r="N22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14">
+        <v>0.028</v>
+      </c>
+      <c r="O22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
       <c r="B23">
         <v>64</v>
       </c>
@@ -1534,7 +1558,7 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>112</v>
@@ -1546,22 +1570,60 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I23">
         <v>1000</v>
       </c>
       <c r="J23">
+        <v>0.016</v>
+      </c>
+      <c r="K23">
+        <v>0.619</v>
+      </c>
+      <c r="L23">
+        <v>0.439</v>
+      </c>
+      <c r="O23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24">
+        <v>64</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>112</v>
+      </c>
+      <c r="F24">
+        <v>112</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24">
+        <v>1000</v>
+      </c>
+      <c r="J24">
         <v>0.011</v>
       </c>
-      <c r="K23">
+      <c r="K24">
         <v>0.304</v>
       </c>
-      <c r="L23">
+      <c r="L24">
         <v>0.218</v>
       </c>
-      <c r="N23" t="s">
-        <v>22</v>
+      <c r="O24" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
